--- a/bin/File.xlsx
+++ b/bin/File.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/bin/File.xlsx
+++ b/bin/File.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SAIES-UJAT\Fuentes\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\SAIES-UJAT\Fuentes\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,7 +339,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
